--- a/Output/GDP_FDI_Model.xlsx
+++ b/Output/GDP_FDI_Model.xlsx
@@ -12,15 +12,12 @@
     <sheet name=" Electricity, Gas &amp; Water Suppl" r:id="rId6" sheetId="4"/>
     <sheet name=" Construction" r:id="rId7" sheetId="5"/>
     <sheet name=" Trade, Hotels &amp; Restaurant" r:id="rId8" sheetId="6"/>
-    <sheet name=" Transport, Storage &amp; Communica" r:id="rId9" sheetId="7"/>
-    <sheet name=" Financing, Insurance, Real Est" r:id="rId10" sheetId="8"/>
-    <sheet name=" Community, Social &amp; Personal S" r:id="rId11" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>Sectors</t>
   </si>
@@ -97,9 +94,6 @@
     <t xml:space="preserve"> BOILERS AND STEAM GENERATING PLANTS</t>
   </si>
   <si>
-    <t xml:space="preserve"> PRIME MOVER (OTHER THAN ELECTRICAL GENERATORS)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ELECTRICAL EQUIPMENTS</t>
   </si>
   <si>
@@ -121,21 +115,12 @@
     <t xml:space="preserve"> CHEMICALS (OTHER THAN FERTILIZERS)</t>
   </si>
   <si>
-    <t xml:space="preserve"> PHOTOGRAPHIC RAW FILM AND PAPER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DYE-STUFFS</t>
-  </si>
-  <si>
     <t xml:space="preserve"> TEXTILES (INCLUDING DYED,PRINTED)</t>
   </si>
   <si>
     <t xml:space="preserve"> PAPER AND PULP (INCLUDING PAPER PRODUCTS)</t>
   </si>
   <si>
-    <t xml:space="preserve"> GLUE AND GELATIN</t>
-  </si>
-  <si>
     <t xml:space="preserve"> GLASS</t>
   </si>
   <si>
@@ -176,78 +161,6 @@
   </si>
   <si>
     <t xml:space="preserve"> HOTEL &amp; TOURISM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Transport, Storage &amp; Communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TELECOMMUNICATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> INFORMATION &amp; BROADCASTING (INCLUDING PRINT MEDIA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AUTOMOBILE INDUSTRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AIR TRANSPORT (INCLUDING AIR FREIGHT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SEA TRANSPORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PORTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RAILWAY RELATED COMPONENTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Financing, Insurance, Real Estate &amp; Business Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CONSULTANCY SERVICES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SERVICES SECTOR (Fin.,Banking,Insurance,Non Fin/Business,Outsourcing,R&amp;D,Courier,Tech. Testing and Analysis, Other)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TRADING</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RETAIL TRADING</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MISCELLANEOUS INDUSTRIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Community, Social &amp; Personal Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COMPUTER SOFTWARE &amp; HARDWARE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ELECTRONICS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COMMERCIAL, OFFICE &amp; HOUSEHOLD EQUIPMENTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MEDICAL AND SURGICAL APPLIANCES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DRUGS &amp; PHARMACEUTICALS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SOAPS, COSMETICS &amp; TOILET PREPARATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HOSPITAL &amp; DIAGNOSTIC CENTRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EDUCATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PRINTING OF BOOKS (INCLUDING LITHO PRINTING INDUSTRY)</t>
   </si>
 </sst>
 </file>
@@ -331,7 +244,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>7.322891621927606E-17</v>
+        <v>1.758222826237087E-16</v>
       </c>
       <c r="C3" t="e">
         <v>#N/A</v>
@@ -345,10 +258,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.013116731199220742</v>
+        <v>0.013116731199220638</v>
       </c>
       <c r="C4" t="n">
-        <v>37.14094663207454</v>
+        <v>37.14094663207425</v>
       </c>
       <c r="D4" t="n">
         <v>169.24036526004124</v>
@@ -359,10 +272,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.15139375538865496</v>
+        <v>-0.1513937553886554</v>
       </c>
       <c r="C5" t="n">
-        <v>-475.95588950019135</v>
+        <v>-475.9558895001928</v>
       </c>
       <c r="D5" t="n">
         <v>152.4307409791738</v>
@@ -373,10 +286,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.003268077221450983</v>
+        <v>-0.0032680772214507023</v>
       </c>
       <c r="C6" t="n">
-        <v>-78.32713067181275</v>
+        <v>-78.32713067180603</v>
       </c>
       <c r="D6" t="n">
         <v>19.99453904836238</v>
@@ -387,10 +300,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9295864720695852</v>
+        <v>0.9295864720695842</v>
       </c>
       <c r="C7" t="n">
-        <v>369.41448188705607</v>
+        <v>369.4144818870557</v>
       </c>
       <c r="D7" t="n">
         <v>1205.8885795513852</v>
@@ -401,10 +314,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.24038203665449293</v>
+        <v>0.2403820366544939</v>
       </c>
       <c r="C8" t="n">
-        <v>19.080266732053783</v>
+        <v>19.08026673205386</v>
       </c>
       <c r="D8" t="n">
         <v>6037.385019356471</v>
@@ -415,10 +328,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>1.0643120925423455</v>
+        <v>1.0643120925423462</v>
       </c>
       <c r="C9" t="n">
-        <v>2919.434667670319</v>
+        <v>2919.434667670321</v>
       </c>
       <c r="D9" t="n">
         <v>174.70347343330604</v>
@@ -429,10 +342,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.8735867646256633</v>
+        <v>-0.8735867646256629</v>
       </c>
       <c r="C10" t="n">
-        <v>-414.67689509523257</v>
+        <v>-414.67689509523234</v>
       </c>
       <c r="D10" t="n">
         <v>1009.5492522909793</v>
@@ -443,10 +356,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02913497498815101</v>
+        <v>0.029134974988150444</v>
       </c>
       <c r="C11" t="n">
-        <v>221.49940717606697</v>
+        <v>221.49940717606268</v>
       </c>
       <c r="D11" t="n">
         <v>63.03378489716418</v>
@@ -457,10 +370,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5493347627552879</v>
+        <v>0.5493347627552875</v>
       </c>
       <c r="C12" t="n">
-        <v>5010.553659009916</v>
+        <v>5010.553659009913</v>
       </c>
       <c r="D12" t="n">
         <v>52.53910486852998</v>
@@ -471,10 +384,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.32027024962816897</v>
+        <v>-0.32027024962816913</v>
       </c>
       <c r="C13" t="n">
-        <v>-99.27550362660182</v>
+        <v>-99.27550362660186</v>
       </c>
       <c r="D13" t="n">
         <v>1545.9868777494282</v>
@@ -485,10 +398,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.12842850239457668</v>
+        <v>-0.12842850239457632</v>
       </c>
       <c r="C14" t="n">
-        <v>-1314.5803028029666</v>
+        <v>-1314.5803028029627</v>
       </c>
       <c r="D14" t="n">
         <v>46.81721782030829</v>
@@ -554,7 +467,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>4.2753010158147437E-16</v>
+        <v>3.257281761702473E-16</v>
       </c>
       <c r="C3" t="e">
         <v>#N/A</v>
@@ -568,10 +481,10 @@
         <v>19</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2992851530632248</v>
+        <v>0.29928515306322484</v>
       </c>
       <c r="C4" t="n">
-        <v>40.03872047229405</v>
+        <v>40.03872047229406</v>
       </c>
       <c r="D4" t="n">
         <v>502.4538761905216</v>
@@ -596,10 +509,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="n">
-        <v>0.550828506802037</v>
+        <v>0.5508285068020369</v>
       </c>
       <c r="C6" t="n">
-        <v>307.1779640239561</v>
+        <v>307.17796402395606</v>
       </c>
       <c r="D6" t="n">
         <v>120.53622021094513</v>
@@ -651,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>7.561945466867782E-16</v>
+        <v>-2.668667535143627E-16</v>
       </c>
       <c r="C3" t="e">
         <v>#N/A</v>
@@ -665,10 +578,10 @@
         <v>23</v>
       </c>
       <c r="B4" t="n">
-        <v>-14.357938775156398</v>
+        <v>0.34076845824347207</v>
       </c>
       <c r="C4" t="n">
-        <v>-1877.4373137516782</v>
+        <v>44.55872314784656</v>
       </c>
       <c r="D4" t="n">
         <v>2913.703097306542</v>
@@ -679,10 +592,10 @@
         <v>24</v>
       </c>
       <c r="B5" t="n">
-        <v>6.222188205594706</v>
+        <v>0.24867813267560926</v>
       </c>
       <c r="C5" t="n">
-        <v>51140.599876761305</v>
+        <v>2043.902958420393</v>
       </c>
       <c r="D5" t="n">
         <v>46.35493420613461</v>
@@ -693,13 +606,13 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>15.846182245552173</v>
+        <v>-0.1367344711208869</v>
       </c>
       <c r="C6" t="n">
-        <v>11710.254340032448</v>
+        <v>-46.93954333790575</v>
       </c>
       <c r="D6" t="n">
-        <v>515.5573257345627</v>
+        <v>1109.83342067168</v>
       </c>
     </row>
     <row r="7">
@@ -707,13 +620,13 @@
         <v>26</v>
       </c>
       <c r="B7" t="n">
-        <v>15.098859328427267</v>
+        <v>1.0883772358812567</v>
       </c>
       <c r="C7" t="n">
-        <v>5183.283746883863</v>
+        <v>354.44781870051077</v>
       </c>
       <c r="D7" t="n">
-        <v>1109.83342067168</v>
+        <v>1169.8920380954423</v>
       </c>
     </row>
     <row r="8">
@@ -721,13 +634,13 @@
         <v>27</v>
       </c>
       <c r="B8" t="n">
-        <v>-5.509008992509243</v>
+        <v>0.07423562394338769</v>
       </c>
       <c r="C8" t="n">
-        <v>-1794.09873362092</v>
+        <v>127.9327556894717</v>
       </c>
       <c r="D8" t="n">
-        <v>1169.8920380954423</v>
+        <v>221.07989620609445</v>
       </c>
     </row>
     <row r="9">
@@ -735,13 +648,13 @@
         <v>28</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.4386745552885665</v>
+        <v>-0.7214138769637818</v>
       </c>
       <c r="C9" t="n">
-        <v>-4202.650149822744</v>
+        <v>-177.44406277880273</v>
       </c>
       <c r="D9" t="n">
-        <v>221.07989620609445</v>
+        <v>1548.9652086394751</v>
       </c>
     </row>
     <row r="10">
@@ -749,13 +662,13 @@
         <v>29</v>
       </c>
       <c r="B10" t="n">
-        <v>-28.276728009477655</v>
+        <v>-0.20484897601181537</v>
       </c>
       <c r="C10" t="n">
-        <v>-6955.144141682188</v>
+        <v>-2289.1080896171757</v>
       </c>
       <c r="D10" t="n">
-        <v>1548.9652086394751</v>
+        <v>34.09464249155593</v>
       </c>
     </row>
     <row r="11">
@@ -763,13 +676,13 @@
         <v>30</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.251598786783278</v>
+        <v>-0.21518013610142672</v>
       </c>
       <c r="C11" t="n">
-        <v>-13986.132435513826</v>
+        <v>-684.1122589981499</v>
       </c>
       <c r="D11" t="n">
-        <v>34.09464249155593</v>
+        <v>119.83769544697135</v>
       </c>
     </row>
     <row r="12">
@@ -777,13 +690,13 @@
         <v>31</v>
       </c>
       <c r="B12" t="n">
-        <v>1.1008913131639984</v>
+        <v>9.139000801725368E-4</v>
       </c>
       <c r="C12" t="n">
-        <v>3500.012858087736</v>
+        <v>0.06573287136968102</v>
       </c>
       <c r="D12" t="n">
-        <v>119.83769544697135</v>
+        <v>5297.058330863181</v>
       </c>
     </row>
     <row r="13">
@@ -791,13 +704,13 @@
         <v>32</v>
       </c>
       <c r="B13" t="n">
-        <v>21.865981953614686</v>
+        <v>0.12723210530842843</v>
       </c>
       <c r="C13" t="n">
-        <v>1572.7253014983514</v>
+        <v>142.55405438107888</v>
       </c>
       <c r="D13" t="n">
-        <v>5297.058330863181</v>
+        <v>340.04452253783757</v>
       </c>
     </row>
     <row r="14">
@@ -805,13 +718,13 @@
         <v>33</v>
       </c>
       <c r="B14" t="n">
-        <v>6.810537107206093</v>
+        <v>0.19744997899062858</v>
       </c>
       <c r="C14" t="n">
-        <v>43602.91407357246</v>
+        <v>135.3296538624135</v>
       </c>
       <c r="D14" t="n">
-        <v>59.509252098422586</v>
+        <v>555.8821960211425</v>
       </c>
     </row>
     <row r="15">
@@ -819,13 +732,13 @@
         <v>34</v>
       </c>
       <c r="B15" t="n">
-        <v>-9.850786636687575</v>
+        <v>-0.23363278051589806</v>
       </c>
       <c r="C15" t="n">
-        <v>-421351.63761532225</v>
+        <v>-306.46240359983193</v>
       </c>
       <c r="D15" t="n">
-        <v>8.907275190500489</v>
+        <v>290.45256618318365</v>
       </c>
     </row>
     <row r="16">
@@ -833,68 +746,12 @@
         <v>35</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.6684021450235227</v>
+        <v>0.19125777103533026</v>
       </c>
       <c r="C16" t="n">
-        <v>-1869.3197721961808</v>
+        <v>223.62391153015582</v>
       </c>
       <c r="D16" t="n">
-        <v>340.04452253783757</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D17" t="n">
-        <v>555.8821960211425</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D18" t="n">
-        <v>9.393055812883793</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D19" t="n">
-        <v>290.45256618318365</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D20" t="n">
         <v>325.8513270941894</v>
       </c>
     </row>
@@ -927,7 +784,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" t="e">
         <v>#N/A</v>
@@ -944,7 +801,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2006274459620524E-17</v>
+        <v>4.6816383672731234E-17</v>
       </c>
       <c r="C3" t="e">
         <v>#N/A</v>
@@ -955,10 +812,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5735961972221962</v>
+        <v>0.5735961972221961</v>
       </c>
       <c r="C4" t="n">
         <v>9.704749310897087</v>
@@ -969,13 +826,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5186170160855254</v>
+        <v>0.5186170160855255</v>
       </c>
       <c r="C5" t="n">
-        <v>13.651661768350696</v>
+        <v>13.651661768350698</v>
       </c>
       <c r="D5" t="n">
         <v>1741.8390819445037</v>
@@ -983,7 +840,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B6" t="n">
         <v>-0.17088399024811624</v>
@@ -1024,7 +881,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" t="e">
         <v>#N/A</v>
@@ -1041,7 +898,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.586452791699308E-19</v>
+        <v>-6.964008495852779E-17</v>
       </c>
       <c r="C3" t="e">
         <v>#N/A</v>
@@ -1052,13 +909,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4" t="n">
-        <v>0.11913761968577011</v>
+        <v>0.11913761968577007</v>
       </c>
       <c r="C4" t="n">
-        <v>301.9985339750416</v>
+        <v>301.9985339750415</v>
       </c>
       <c r="D4" t="n">
         <v>94.99376618932143</v>
@@ -1066,13 +923,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3392615581813545</v>
+        <v>0.33926155818135456</v>
       </c>
       <c r="C5" t="n">
-        <v>8459.178070329202</v>
+        <v>8459.178070329204</v>
       </c>
       <c r="D5" t="n">
         <v>9.657339684963299</v>
@@ -1080,13 +937,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0695704031451045</v>
+        <v>0.06957040314510425</v>
       </c>
       <c r="C6" t="n">
-        <v>15.407903114500288</v>
+        <v>15.40790311450023</v>
       </c>
       <c r="D6" t="n">
         <v>1087.2564764582526</v>
@@ -1094,13 +951,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6990661688302068</v>
+        <v>0.699066168830207</v>
       </c>
       <c r="C7" t="n">
-        <v>154.79189140191136</v>
+        <v>154.7918914019114</v>
       </c>
       <c r="D7" t="n">
         <v>1087.4795538458145</v>
@@ -1108,13 +965,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1609664446579089</v>
+        <v>0.16096644465790905</v>
       </c>
       <c r="C8" t="n">
-        <v>4.5351667074746995</v>
+        <v>4.535166707474704</v>
       </c>
       <c r="D8" t="n">
         <v>8546.59487527569</v>
@@ -1149,7 +1006,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B2" t="e">
         <v>#N/A</v>
@@ -1166,7 +1023,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1.1706516494960335E-16</v>
+        <v>1.3271247856507354E-16</v>
       </c>
       <c r="C3" t="e">
         <v>#N/A</v>
@@ -1177,7 +1034,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4" t="n">
         <v>0.52734347310316</v>
@@ -1187,465 +1044,6 @@
       </c>
       <c r="D4" t="n">
         <v>4555.679343663659</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.093747264019603</v>
-      </c>
-      <c r="C3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.28493131762333834</v>
-      </c>
-      <c r="C4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4140.065981663288</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.29430513127666585</v>
-      </c>
-      <c r="C5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1232.1847894498114</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.3887081218865878</v>
-      </c>
-      <c r="C6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2942.746949368232</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.49440507918065546</v>
-      </c>
-      <c r="C7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D7" t="n">
-        <v>185.842401431417</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.1760022559330475</v>
-      </c>
-      <c r="C8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D8" t="n">
-        <v>442.860668049221</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.4259904947425223</v>
-      </c>
-      <c r="C9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1100.9293629989716</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4.1024602081965735</v>
-      </c>
-      <c r="C10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D10" t="n">
-        <v>354.44836663403987</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D2" t="n">
-        <v>525680.4586101075</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-1.6000958700078292E-16</v>
-      </c>
-      <c r="C3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.06077258376266541</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-55.56703337818606</v>
-      </c>
-      <c r="D4" t="n">
-        <v>574.9264943811188</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.11476222198642863</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5.3093974582556935</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11362.543105740764</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.7502994781240206</v>
-      </c>
-      <c r="C6" t="n">
-        <v>175.21694624096992</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2251.0252701969257</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.3623168898576572</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3440.552044654772</v>
-      </c>
-      <c r="D7" t="n">
-        <v>55.35824087255517</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.1261988976083488</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-29.90866359571223</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2218.096243536521</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D2" t="n">
-        <v>408625.66131508717</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-1.431719476632446E-16</v>
-      </c>
-      <c r="C3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.27639570168175004</v>
-      </c>
-      <c r="C4" t="n">
-        <v>38.81709976527151</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2909.6036815557973</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.06031817996263021</v>
-      </c>
-      <c r="C5" t="n">
-        <v>63.78564207186569</v>
-      </c>
-      <c r="D5" t="n">
-        <v>386.41229242126974</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.5369212818928669</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2355.1786361783</v>
-      </c>
-      <c r="D6" t="n">
-        <v>93.15633664359008</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.4003165684696406</v>
-      </c>
-      <c r="C7" t="n">
-        <v>494.9287467412233</v>
-      </c>
-      <c r="D7" t="n">
-        <v>330.5114596865838</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.09520436940736857</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-6.543534274897849</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5945.25019276057</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.09846559386243572</v>
-      </c>
-      <c r="C9" t="n">
-        <v>112.54731269105301</v>
-      </c>
-      <c r="D9" t="n">
-        <v>357.49914810732866</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.7864844518530374</v>
-      </c>
-      <c r="C10" t="n">
-        <v>689.6503850515064</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1058.5122641714297</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.2026171502143155</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-175.69952516667217</v>
-      </c>
-      <c r="D11" t="n">
-        <v>471.22817731899045</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-1.4241444395655294</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-3216.440407279798</v>
-      </c>
-      <c r="D12" t="n">
-        <v>180.92732640360887</v>
       </c>
     </row>
   </sheetData>
